--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_284.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_284.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,692 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[('0:01:04.520000', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:06.200000', '0:00:16.360000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (47.14, 55.2), (0.36, 5.6)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98), (35.88, 37.42), (9.1, 13.86)]</t>
+          <t>[('0:01:47.900000', '0:01:49.300000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:00:46.520000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:00.380000', '0:00:06.260000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(96.06, 107.42)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(38.62, 46.84)]</t>
+          <t>[('0:00:20.080000', '0:00:23.800000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:03:49.340000', '0:04:05.220000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(97.62, 113.78)]</t>
+          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(13.08, 19.46)]</t>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:01:14.900000', '0:01:33.840000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07023809523809524</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'B/7']]</t>
-        </is>
+          <t>isophonics_121</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.09713228492136911</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'G']]</t>
+          <t>[['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(4.940612, 6.577619)]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(76.889251, 80.407074)]</t>
+          <t>[('0:00:07.935986', '0:00:12.498707')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+          <t>[('0:00:52.750498', '0:00:59.809365')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05207296849087894</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A/3', 'D', 'F#', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'E', 'A']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(45.772902, 52.634399)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(44.448575, 52.798639)]</t>
+          <t>[('0:00:59.900000', '0:01:09.840000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+          <t>[('0:00:19.140000', '0:00:24.780000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min'], ['A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6), (28.02, 30.1)]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (62.86, 68.74)]</t>
+          <t>[('0:00:03.460000', '0:00:15.080000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:01.420000', '0:01:11')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:7', 'C:min', 'C:min'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[('0:00:12.700000', '0:00:27.180000'), ('0:01:15.800000', '0:01:22.440000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:13.420000', '0:00:17.820000'), ('0:00:32.440000', '0:00:34.800000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07146401985111663</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:min/G#', 'A#:min', 'F:min/G#']]</t>
-        </is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(97.76, 109.38)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:00:06.415079', '0:00:14.054444')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:min/G#', 'A#:min', 'F:min/G#'], ['F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(97.76, 109.38), (43.68, 45.8)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(27.46, 36.02), (81.1, 87.58)]</t>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(34.94, 36.86)]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[('0:00:17.380000', '0:01:01.660000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:14.520000', '0:00:59.040000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[('0:00:07.140000', '0:01:47.600000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:09.240000', '0:01:48.600000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8), (0.3, 3.34)]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (28.8, 36.86)]</t>
+          <t>[('0:01:00.320000', '0:01:06.700000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.38, 6.26)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(43.18, 45.1)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
